--- a/Design/DataTable/Monster/MonsterMoneyAmount.xlsx
+++ b/Design/DataTable/Monster/MonsterMoneyAmount.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumTowerDefecne\Design\DataTable\Monster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C46E51B-2D61-4087-955A-3127E076D6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77ACF2A5-D2F8-46C6-B129-664CD0FF2FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5EE96EA1-4472-4FD8-BC1B-9B8BCD3F6D65}"/>
   </bookViews>
@@ -433,7 +433,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C52"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -479,7 +479,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -490,7 +490,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -501,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -512,7 +512,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
@@ -523,7 +523,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -534,7 +534,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
@@ -545,7 +545,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
@@ -556,7 +556,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="1">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
@@ -567,7 +567,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
@@ -578,7 +578,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="1">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
@@ -589,7 +589,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="1">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
@@ -600,7 +600,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="1">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
@@ -611,7 +611,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="1">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
@@ -622,7 +622,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="1">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
@@ -633,7 +633,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="1">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
@@ -644,7 +644,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="1">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
@@ -655,7 +655,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="1">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
@@ -666,7 +666,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="1">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
@@ -677,7 +677,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="1">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
@@ -688,7 +688,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
@@ -699,7 +699,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="1">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
@@ -710,7 +710,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="1">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
@@ -721,7 +721,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="1">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
@@ -732,7 +732,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="1">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
@@ -743,7 +743,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="1">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
@@ -754,7 +754,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="1">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
@@ -765,7 +765,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="1">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
@@ -776,7 +776,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="1">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
@@ -787,7 +787,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="1">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
@@ -798,7 +798,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="1">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
@@ -809,7 +809,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="1">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
@@ -820,7 +820,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="1">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
@@ -831,7 +831,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="1">
-        <v>43</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
@@ -842,7 +842,7 @@
         <v>35</v>
       </c>
       <c r="C37" s="1">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
@@ -853,7 +853,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="1">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
@@ -864,7 +864,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="1">
-        <v>46</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
@@ -875,7 +875,7 @@
         <v>38</v>
       </c>
       <c r="C40" s="1">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
@@ -886,7 +886,7 @@
         <v>39</v>
       </c>
       <c r="C41" s="1">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
@@ -897,7 +897,7 @@
         <v>40</v>
       </c>
       <c r="C42" s="1">
-        <v>49</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
@@ -908,7 +908,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="1">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.4">
@@ -919,7 +919,7 @@
         <v>42</v>
       </c>
       <c r="C44" s="1">
-        <v>51</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.4">
@@ -930,7 +930,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="1">
-        <v>52</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
@@ -941,7 +941,7 @@
         <v>44</v>
       </c>
       <c r="C46" s="1">
-        <v>53</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
@@ -952,7 +952,7 @@
         <v>45</v>
       </c>
       <c r="C47" s="1">
-        <v>54</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
@@ -963,7 +963,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="1">
-        <v>55</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
@@ -974,7 +974,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="1">
-        <v>56</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
@@ -985,7 +985,7 @@
         <v>48</v>
       </c>
       <c r="C50" s="1">
-        <v>57</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
@@ -996,7 +996,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="1">
-        <v>58</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
@@ -1007,7 +1007,7 @@
         <v>50</v>
       </c>
       <c r="C52" s="1">
-        <v>59</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
